--- a/data/preseason-odds/preseason-odds.xlsx
+++ b/data/preseason-odds/preseason-odds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sem4\SI-django\si\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sem4\SI-django\si\data\preseason-odds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{175A7E63-0002-4AB7-A24C-FD752D2A07A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912BB366-ADC0-42BD-B889-EFA4AA3A0918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{2EEF139A-2F0D-4C3D-A32D-BA067D9D937A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{2EEF139A-2F0D-4C3D-A32D-BA067D9D937A}"/>
   </bookViews>
   <sheets>
     <sheet name="2005-06" sheetId="2" r:id="rId1"/>
@@ -6253,8 +6253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADD2FA6-C9AE-40B8-9E2F-CE101208A4AE}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="A1:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7169,8 +7169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE12943F-3E70-46D3-9319-8C2D4EB95EAD}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
